--- a/documents/my_competency.xlsx
+++ b/documents/my_competency.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="172">
   <si>
     <t>Skills</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t xml:space="preserve">English Communication </t>
+  </si>
+  <si>
+    <t>Avoiding Repeated Mistakes</t>
   </si>
 </sst>
 </file>
@@ -885,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z162"/>
+  <dimension ref="A1:Z163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1104,21 +1107,21 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -1126,7 +1129,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1134,7 +1137,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -1142,7 +1145,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -1150,7 +1153,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -1158,7 +1161,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1166,7 +1169,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -1174,7 +1177,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -1182,7 +1185,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -1190,7 +1193,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -1198,7 +1201,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -1206,7 +1209,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -1214,7 +1217,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -1222,28 +1225,28 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>132</v>
       </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -1251,28 +1254,28 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>29</v>
       </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
@@ -1280,7 +1283,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
@@ -1288,7 +1291,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -1296,7 +1299,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
@@ -1304,7 +1307,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -1312,7 +1315,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -1320,7 +1323,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
@@ -1328,7 +1331,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
@@ -1336,7 +1339,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -1344,7 +1347,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -1352,7 +1355,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -1360,7 +1363,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -1368,28 +1371,28 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>81</v>
       </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
@@ -1397,7 +1400,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
@@ -1405,7 +1408,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
@@ -1413,7 +1416,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
@@ -1421,7 +1424,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -1437,7 +1440,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
@@ -1445,7 +1448,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
@@ -1461,7 +1464,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -1469,7 +1472,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
@@ -1477,28 +1480,28 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>122</v>
       </c>
-      <c r="C72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -1506,7 +1509,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -1514,7 +1517,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -1522,28 +1525,28 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>48</v>
       </c>
-      <c r="C78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -1551,28 +1554,28 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>92</v>
       </c>
-      <c r="C82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -1580,7 +1583,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -1588,7 +1591,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
@@ -1596,7 +1599,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -1604,7 +1607,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
@@ -1612,7 +1615,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
@@ -1620,7 +1623,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -1628,7 +1631,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -1636,7 +1639,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
@@ -1644,7 +1647,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
@@ -1652,28 +1655,28 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>108</v>
       </c>
-      <c r="C95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -1681,7 +1684,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
@@ -1689,7 +1692,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
@@ -1697,7 +1700,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -1705,7 +1708,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
@@ -1713,25 +1716,25 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>75</v>
-      </c>
-      <c r="C105" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
@@ -1739,7 +1742,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
@@ -1747,7 +1750,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
@@ -1755,7 +1758,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
@@ -1763,7 +1766,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -1771,7 +1774,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
@@ -1779,28 +1782,28 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>80</v>
       </c>
-      <c r="C112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>83</v>
-      </c>
-      <c r="C114" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
@@ -1808,7 +1811,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
@@ -1816,7 +1819,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
@@ -1824,7 +1827,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
@@ -1832,7 +1835,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -1840,28 +1843,28 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>89</v>
       </c>
-      <c r="C120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>124</v>
-      </c>
-      <c r="C122" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
@@ -1869,7 +1872,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
@@ -1877,28 +1880,28 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>127</v>
       </c>
-      <c r="C125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>129</v>
-      </c>
-      <c r="C127" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
@@ -1906,28 +1909,28 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>135</v>
       </c>
-      <c r="C129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>137</v>
-      </c>
-      <c r="C131" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
@@ -1935,7 +1938,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
@@ -1951,7 +1954,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
@@ -1959,7 +1962,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
@@ -1967,7 +1970,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
@@ -1975,7 +1978,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
@@ -1983,7 +1986,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
         <v>8</v>
@@ -1991,7 +1994,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
@@ -1999,7 +2002,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -2007,7 +2010,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C142" t="s">
         <v>8</v>
@@ -2015,7 +2018,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C143" t="s">
         <v>8</v>
@@ -2023,7 +2026,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
@@ -2031,7 +2034,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C145" t="s">
         <v>8</v>
@@ -2039,28 +2042,28 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
+        <v>151</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>152</v>
       </c>
-      <c r="C146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>161</v>
-      </c>
-      <c r="C148" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
@@ -2068,7 +2071,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
@@ -2076,7 +2079,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
@@ -2084,7 +2087,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
@@ -2092,7 +2095,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
@@ -2100,7 +2103,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C154" t="s">
         <v>8</v>
@@ -2108,7 +2111,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C155" t="s">
         <v>8</v>
@@ -2116,7 +2119,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
@@ -2124,7 +2127,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C157" t="s">
         <v>8</v>
@@ -2132,7 +2135,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C158" t="s">
         <v>8</v>
@@ -2140,7 +2143,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -2148,7 +2151,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C160" t="s">
         <v>8</v>
@@ -2156,7 +2159,7 @@
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
@@ -2164,15 +2167,23 @@
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>168</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C114:C120 C148:C162 C105:C112 C97:C103 C127:C129 C80:C82 C74:C78 C84:C95 C45:C58 C41:C43 C60:C72 C3:C11 C122:C125 C25:C39 C131:C146 C13:C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C115:C121 C149:C163 C106:C113 C98:C104 C128:C130 C81:C83 C75:C79 C85:C96 C46:C59 C42:C44 C61:C73 C3:C11 C123:C126 C26:C40 C132:C147 C13:C24">
       <formula1>$Z$2:$Z$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/documents/my_competency.xlsx
+++ b/documents/my_competency.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="175">
   <si>
     <t>Skills</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Keil</t>
   </si>
   <si>
-    <t>Micro C</t>
-  </si>
-  <si>
     <t>Proteus</t>
   </si>
   <si>
@@ -530,6 +527,18 @@
   </si>
   <si>
     <t>Avoiding Repeated Mistakes</t>
+  </si>
+  <si>
+    <t>Understanding of Organization Goals</t>
+  </si>
+  <si>
+    <t>Mikro C</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Self Performance Level</t>
   </si>
 </sst>
 </file>
@@ -888,14 +897,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z163"/>
+  <dimension ref="A1:Z167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="72.7109375" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
@@ -915,12 +924,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z2" t="s">
         <v>8</v>
@@ -972,7 +981,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -983,7 +992,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -991,7 +1000,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -999,7 +1008,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1007,7 +1016,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1028,7 +1037,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1092,7 +1101,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -1108,44 +1117,36 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>171</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>97</v>
+      <c r="C25" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
+      <c r="A28" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -1153,7 +1154,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -1161,7 +1162,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1169,7 +1170,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -1177,7 +1178,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -1185,7 +1186,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -1193,7 +1194,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -1201,7 +1202,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -1209,7 +1210,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -1217,7 +1218,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -1225,7 +1226,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
@@ -1233,20 +1234,23 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>26</v>
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -1254,28 +1258,28 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
+      <c r="A44" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>30</v>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
@@ -1283,23 +1287,20 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
+      <c r="A48" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
@@ -1307,7 +1308,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -1315,7 +1316,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -1323,7 +1324,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
@@ -1331,7 +1332,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
@@ -1339,7 +1340,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -1347,7 +1348,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -1355,7 +1356,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -1363,7 +1364,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -1371,7 +1372,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -1379,20 +1380,23 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>133</v>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
@@ -1400,23 +1404,20 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" t="s">
-        <v>8</v>
+      <c r="A63" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
@@ -1424,7 +1425,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -1432,7 +1433,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -1440,7 +1441,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
@@ -1448,7 +1449,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -1456,7 +1457,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
@@ -1464,7 +1465,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -1472,7 +1473,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
@@ -1480,7 +1481,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
@@ -1488,20 +1489,23 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>44</v>
+      <c r="B74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -1509,23 +1513,20 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" t="s">
-        <v>8</v>
+      <c r="A77" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -1533,20 +1534,23 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>48</v>
       </c>
-      <c r="C79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>50</v>
+      <c r="C80" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -1554,28 +1558,28 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" t="s">
-        <v>8</v>
+      <c r="A83" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>57</v>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -1583,23 +1587,20 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" t="s">
-        <v>8</v>
+      <c r="A87" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -1607,7 +1608,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
@@ -1615,7 +1616,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
@@ -1623,7 +1624,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -1631,7 +1632,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -1639,7 +1640,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
@@ -1647,7 +1648,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
@@ -1655,7 +1656,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
@@ -1663,20 +1664,23 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>66</v>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -1684,23 +1688,20 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>69</v>
-      </c>
-      <c r="C100" t="s">
-        <v>8</v>
+      <c r="A100" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -1708,7 +1709,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
@@ -1716,7 +1717,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
@@ -1724,17 +1725,23 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>111</v>
+        <v>69</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>74</v>
+      <c r="B105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
@@ -1742,23 +1749,17 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>77</v>
-      </c>
-      <c r="C107" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>76</v>
-      </c>
-      <c r="C108" t="s">
-        <v>8</v>
+      <c r="A108" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
@@ -1766,7 +1767,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -1774,7 +1775,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
@@ -1782,7 +1783,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
@@ -1790,20 +1791,23 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>82</v>
+      <c r="B114" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
@@ -1811,23 +1815,20 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>85</v>
-      </c>
-      <c r="C117" t="s">
-        <v>8</v>
+      <c r="A117" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
@@ -1835,7 +1836,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -1843,7 +1844,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
@@ -1851,20 +1852,23 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>109</v>
+      <c r="B122" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
@@ -1872,36 +1876,36 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>126</v>
-      </c>
-      <c r="C125" t="s">
-        <v>8</v>
+      <c r="A125" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>128</v>
+      <c r="B127" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
@@ -1909,28 +1913,28 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>135</v>
-      </c>
-      <c r="C130" t="s">
-        <v>8</v>
+      <c r="A130" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>136</v>
+      <c r="B131" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
@@ -1938,23 +1942,20 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>139</v>
-      </c>
-      <c r="C134" t="s">
-        <v>8</v>
+      <c r="A134" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
@@ -1962,7 +1963,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
@@ -1970,7 +1971,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
@@ -1978,7 +1979,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
@@ -1986,7 +1987,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
         <v>8</v>
@@ -1994,7 +1995,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
@@ -2002,7 +2003,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -2010,7 +2011,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
         <v>8</v>
@@ -2018,7 +2019,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
         <v>8</v>
@@ -2026,7 +2027,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
@@ -2034,7 +2035,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
         <v>8</v>
@@ -2042,7 +2043,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
@@ -2050,20 +2051,23 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>156</v>
+      <c r="B148" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
@@ -2071,23 +2075,20 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>153</v>
-      </c>
-      <c r="C151" t="s">
-        <v>8</v>
+      <c r="A151" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
@@ -2095,7 +2096,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
@@ -2103,7 +2104,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C154" t="s">
         <v>8</v>
@@ -2111,7 +2112,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C155" t="s">
         <v>8</v>
@@ -2119,7 +2120,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
@@ -2127,7 +2128,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C157" t="s">
         <v>8</v>
@@ -2135,7 +2136,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C158" t="s">
         <v>8</v>
@@ -2143,7 +2144,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -2151,7 +2152,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C160" t="s">
         <v>8</v>
@@ -2159,7 +2160,7 @@
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
@@ -2167,7 +2168,7 @@
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
@@ -2175,15 +2176,47 @@
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>166</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>174</v>
+      </c>
+      <c r="C167" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C115:C121 C149:C163 C106:C113 C98:C104 C128:C130 C81:C83 C75:C79 C85:C96 C46:C59 C42:C44 C61:C73 C3:C11 C123:C126 C26:C40 C132:C147 C13:C24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C118:C124 C109:C116 C101:C107 C131:C133 C84:C86 C78:C82 C88:C99 C49:C62 C45:C47 C64:C76 C3:C11 C126:C129 C29:C43 C135:C150 C152:C167 C13:C26">
       <formula1>$Z$2:$Z$7</formula1>
     </dataValidation>
   </dataValidations>
